--- a/362-rc---maj-des-capability-statements--lot-1b/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:22:03+00:00</t>
+    <t>2025-10-21T07:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:57:56+00:00</t>
+    <t>2025-10-23T07:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
